--- a/exp2/case03/report/motivation/pressure-tension/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/pressure-tension/MeasurementModel.xlsx
@@ -3687,25 +3687,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>0.8879743402449792</v>
+        <v>0.9203219374856606</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>-0.23906801179936907</v>
+        <v>-0.1529877113985111</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.8110528455334471</v>
+        <v>0.878407966092632</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>1.0348120270796168</v>
+        <v>1.063547812324032</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>0.18846482812590373</v>
+        <v>0.3190383756746347</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.8505122845330251</v>
+        <v>0.7496974125597369</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3716,25 +3716,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>0.9406723908569892</v>
+        <v>0.9343107177325398</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>-0.10834708279865593</v>
+        <v>-0.119020822542152</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.9137203757369364</v>
+        <v>0.9052588590372904</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>1.1438238129582332</v>
+        <v>1.124168545156742</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>0.6138483746310495</v>
+        <v>0.5544823365935821</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.5393155273859562</v>
+        <v>0.579248790769475</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3745,25 +3745,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>0.8382701759710628</v>
+        <v>0.8337199065232715</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>-0.44203584768466453</v>
+        <v>-0.46400442584712276</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.6584632656280565</v>
+        <v>0.6426445747127987</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>0.9459501852830335</v>
+        <v>0.937484119376469</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>-0.20385738866058847</v>
+        <v>-0.2450655834979249</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.8384649446923915</v>
+        <v>0.8064056508691921</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3774,28 +3774,28 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>0.9492277429374436</v>
+        <v>0.6858513953421491</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>8.644221831876166</v>
+        <v>8.69561686156463</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>5.417321787658553E-18</v>
+        <v>3.449505765082976E-18</v>
       </c>
       <c r="E30" t="n" s="274">
-        <v>3.250393072595132E-17</v>
+        <v>2.0697034590497857E-17</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.5137696069473663</v>
+        <v>1.3887809433108882</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>1.552025938081437</v>
+        <v>1.2707617525660102</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.12065601740851557</v>
+        <v>0.2038134192723608</v>
       </c>
       <c r="I30" t="n" s="278">
-        <v>0.7239361044510935</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -3803,28 +3803,28 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>1.7748091055651267</v>
+        <v>1.6987226947100729</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.9691618674123068</v>
+        <v>0.9256852486930407</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.33246443358053895</v>
+        <v>0.354609576121464</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.6172088372605447</v>
+        <v>1.6376683014227933</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>3.7195659796830056</v>
+        <v>3.874147034968781</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>1.9956541188523462E-4</v>
+        <v>1.0699879942369243E-4</v>
       </c>
       <c r="I31" t="n" s="278">
-        <v>0.0017960887069671115</v>
+        <v>9.629891948132319E-4</v>
       </c>
     </row>
     <row r="32">
@@ -3832,28 +3832,28 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.2607259771369403</v>
+        <v>1.2589974321748119</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>1.4752960808671882</v>
+        <v>1.4295854083371449</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.14013295963490313</v>
+        <v>0.15283604593054678</v>
       </c>
       <c r="E32" t="n" s="274">
-        <v>0.7006647981745157</v>
+        <v>0.7641802296527339</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.4566949117857861</v>
+        <v>1.4407645797629332</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>2.9458208598157487</v>
+        <v>2.858855395919513</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>0.003220988856422271</v>
+        <v>0.004251725494225514</v>
       </c>
       <c r="I32" t="n" s="278">
-        <v>0.022546921994955896</v>
+        <v>0.0297620784595786</v>
       </c>
     </row>
     <row r="33">
@@ -3861,28 +3861,28 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.1271539470215184</v>
+        <v>1.1058005046084205</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>12.787549542012336</v>
+        <v>12.094958813857822</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>1.9244665701826223E-37</v>
+        <v>1.122985604272915E-33</v>
       </c>
       <c r="E33" t="n" s="274">
-        <v>1.3471265991278357E-36</v>
+        <v>7.860899229910406E-33</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.454955885890507</v>
+        <v>1.4221679953832636</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>3.34921677834087</v>
+        <v>3.1347601275882573</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>8.104036229476656E-4</v>
+        <v>0.0017199468772857325</v>
       </c>
       <c r="I33" t="n" s="278">
-        <v>0.006483228983581325</v>
+        <v>0.01375957501828586</v>
       </c>
     </row>
     <row r="34">
@@ -3890,10 +3890,10 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>0.9622120403473324</v>
+        <v>1.0478034400188498</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>373.5931389262554</v>
+        <v>345.8800708066086</v>
       </c>
       <c r="D34" t="n" s="273">
         <v>0.0</v>
@@ -3902,13 +3902,13 @@
         <v>0.0</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>0.9691360374831411</v>
+        <v>0.9836433254182783</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>-0.3549284351854926</v>
+        <v>-0.25528105903740245</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>0.7226432053482696</v>
+        <v>0.7985060281107182</v>
       </c>
       <c r="I34" t="n" s="278">
         <v>1.0</v>
@@ -3919,10 +3919,10 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>0.9284785500074142</v>
+        <v>0.7165162155212836</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>21665.76009247546</v>
+        <v>19707.33033954465</v>
       </c>
       <c r="D35" t="n" s="273">
         <v>0.0</v>
@@ -3931,13 +3931,13 @@
         <v>0.0</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>0.9631204085950439</v>
+        <v>0.9617322228122862</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>-0.11451501387579406</v>
+        <v>-0.10004655837940066</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.908829545339161</v>
+        <v>0.920307362597383</v>
       </c>
       <c r="I35" t="n" s="278">
         <v>1.0</v>

--- a/exp2/case03/report/motivation/pressure-tension/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/pressure-tension/MeasurementModel.xlsx
@@ -2215,16 +2215,16 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>434.9686702967296</v>
+        <v>434.96867029672967</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-217.4843351483648</v>
+        <v>-217.48433514836483</v>
       </c>
       <c r="D6" t="n" s="34">
         <v>48.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.8653471912602045</v>
+        <v>0.8653471912602037</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.084569963146635</v>
+        <v>0.08456996314663502</v>
       </c>
       <c r="B11" t="n" s="57">
         <v>0.1268549447199525</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>348.19016479745085</v>
+        <v>348.19016479741833</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>3.0</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>20.429924847909795</v>
+        <v>20.429924847909767</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.02505257041340969</v>
+        <v>0.025052570413409986</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.03319711880479812</v>
+        <v>0.03319711880479777</v>
       </c>
     </row>
     <row r="22">
@@ -2402,7 +2402,7 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>348.19016479745085</v>
+        <v>348.19016479741833</v>
       </c>
       <c r="G26" t="n" s="125">
         <v>0.0</v>
@@ -2428,7 +2428,7 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>174.713313942233</v>
+        <v>174.71331394221824</v>
       </c>
       <c r="G27" t="n" s="125">
         <v>5.551115123125783E-16</v>
@@ -2454,13 +2454,13 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>34.427617289689415</v>
+        <v>34.427617289689685</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.9430403248678692</v>
+        <v>0.9430403248678649</v>
       </c>
       <c r="H28" t="n" s="126">
-        <v>0.9430403248678692</v>
+        <v>0.9430403248678649</v>
       </c>
     </row>
     <row r="29">
@@ -2491,145 +2491,145 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B33" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C33" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="145">
-        <v>0.2813095553615821</v>
+        <v>0.2813095553615841</v>
       </c>
       <c r="B34" t="n" s="146">
-        <v>0.2981295418721208</v>
+        <v>0.2981295418721217</v>
       </c>
       <c r="C34" t="n" s="147">
-        <v>-0.9043243234950866</v>
+        <v>-0.9043243234950846</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="145">
-        <v>-0.7927770491022157</v>
+        <v>-0.7927770491022166</v>
       </c>
       <c r="B35" t="n" s="146">
-        <v>1.232617806169757</v>
+        <v>1.2326178061697588</v>
       </c>
       <c r="C35" t="n" s="147">
-        <v>-0.044203584557078734</v>
+        <v>-0.044203584557083175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="145">
-        <v>-0.7927770491022166</v>
+        <v>-0.7927770491022148</v>
       </c>
       <c r="B36" t="n" s="146">
-        <v>0.23261780616975614</v>
+        <v>0.2326178061697588</v>
       </c>
       <c r="C36" t="n" s="147">
-        <v>0.9557964154429222</v>
+        <v>0.9557964154429168</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B37" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C37" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="145">
-        <v>-1.1018030697787733</v>
+        <v>-1.1018030697787715</v>
       </c>
       <c r="B38" t="n" s="146">
-        <v>0.9233804929928455</v>
+        <v>0.9233804929928464</v>
       </c>
       <c r="C38" t="n" s="147">
-        <v>0.6496389252395183</v>
+        <v>0.649638925239512</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="145">
-        <v>0.7735412557869625</v>
+        <v>0.7735412557869643</v>
       </c>
       <c r="B39" t="n" s="146">
-        <v>-2.195309491230976</v>
+        <v>-2.195309491230975</v>
       </c>
       <c r="C39" t="n" s="147">
-        <v>1.4688060828317244</v>
+        <v>1.4688060828317249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>-0.1725790085435177</v>
+        <v>-0.17257900854351504</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>-0.145689687365258</v>
+        <v>-0.14568968736525711</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>0.5659168916455979</v>
+        <v>0.565916891645597</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>0.4574895108756558</v>
+        <v>0.45748951087565715</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>-0.5124316761311651</v>
+        <v>-0.5124316761311642</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>0.16652271459086965</v>
+        <v>0.16652271459086831</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>-0.1725790085435177</v>
+        <v>-0.17257900854351504</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>-0.145689687365258</v>
+        <v>-0.14568968736525711</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>0.5659168916455979</v>
+        <v>0.565916891645597</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>0.8274209914564841</v>
+        <v>0.827420991456485</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>-0.1456896873652589</v>
+        <v>-0.14568968736525623</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>-0.4340831083544021</v>
+        <v>-0.434083108354403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>-0.45237749958162277</v>
+        <v>-0.45237749958162166</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>-0.44152955858346976</v>
+        <v>-0.4415295585834682</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>0.42562241449722626</v>
+        <v>0.4256224144972274</v>
       </c>
     </row>
     <row r="46">
@@ -2640,73 +2640,73 @@
         <v>1.298405728291553</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>0.05575793421130815</v>
+        <v>0.05575793421130282</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>0.14126398876536195</v>
+        <v>0.14126398876536284</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>0.16971426383007415</v>
+        <v>0.16971426383007593</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>-0.13343755126222323</v>
+        <v>-0.13343755126222412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>-0.45237749958162277</v>
+        <v>-0.45237749958162166</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.44152955858346976</v>
+        <v>-0.4415295585834682</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>0.42562241449722626</v>
+        <v>0.4256224144972274</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>-0.5425104891243451</v>
+        <v>-0.5425104891243442</v>
       </c>
       <c r="B50" t="n" s="146">
         <v>-0.5124316761311651</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>1.1665227145908688</v>
+        <v>1.1665227145908679</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>0.14126398876536195</v>
+        <v>0.14126398876536284</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.16971426383007415</v>
+        <v>0.16971426383007593</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-0.13343755126222323</v>
+        <v>-0.13343755126222412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>1.0870837042457753</v>
+        <v>1.0870837042457788</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>-0.8818206350147739</v>
+        <v>-0.8818206350147735</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>-0.2228970982431382</v>
+        <v>-0.22289709824313686</v>
       </c>
     </row>
     <row r="53">
@@ -2714,87 +2714,87 @@
         <v>0.5164125016832521</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>0.5422585549774546</v>
+        <v>0.5422585549774572</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>-0.7377483963320435</v>
+        <v>-0.7377483963320479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>0.08708370424577616</v>
+        <v>0.08708370424577883</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.8818206350147735</v>
+        <v>-0.881820635014773</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>0.7771029017568618</v>
+        <v>0.7771029017568631</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>0.08708370424577616</v>
+        <v>0.08708370424577971</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>0.11817936498522696</v>
+        <v>0.11817936498522741</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.2228970982431373</v>
+        <v>-0.22289709824313597</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>-0.6026854653816627</v>
+        <v>-0.6026854653816618</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>2.4269121724655665</v>
+        <v>2.426912172465566</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>-1.9049406022674353</v>
+        <v>-1.904940602267434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>0.3712129944603788</v>
+        <v>0.37121299446037703</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>0.38069738283788546</v>
+        <v>0.3806973828378828</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>0.2874376419068083</v>
+        <v>0.28743764190680565</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>0.39731453461833777</v>
+        <v>0.39731453461833866</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>-0.5730878275344327</v>
+        <v>-0.5730878275344322</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>0.09505939773256555</v>
+        <v>0.09505939773256644</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>-0.0023126682492113915</v>
+        <v>-0.002312668249210059</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>0.019939838145112354</v>
+        <v>0.019939838145112798</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.24207356311639083</v>
+        <v>-0.24207356311638906</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>0.3712129944603788</v>
+        <v>0.37121299446037703</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>0.38069738283788546</v>
+        <v>0.3806973828378828</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>0.2874376419068083</v>
+        <v>0.28743764190680565</v>
       </c>
     </row>
     <row r="61">
@@ -2802,62 +2802,62 @@
         <v>-3.7927770491022157</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>2.232617806169757</v>
+        <v>2.2326178061697606</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>1.9557964154429213</v>
+        <v>1.955796415442916</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>1.773541255786963</v>
+        <v>1.7735412557869643</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-2.1953094912309763</v>
+        <v>-2.1953094912309745</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>0.4688060828317244</v>
+        <v>0.4688060828317253</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>-0.1725790085435177</v>
+        <v>-0.17257900854351593</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>0.8543103126347411</v>
+        <v>0.8543103126347429</v>
       </c>
       <c r="C66" t="n" s="147">
         <v>-0.434083108354403</v>
@@ -2865,134 +2865,134 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>0.14126398876536062</v>
+        <v>0.1412639887653646</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>-1.8302857361699263</v>
+        <v>-1.830285736169924</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>1.8665624487377768</v>
+        <v>1.866562448737775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>0.773541255786963</v>
+        <v>0.7735412557869648</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>0.8046905087690237</v>
+        <v>0.8046905087690259</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-1.5311939171682756</v>
+        <v>-1.5311939171682747</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>-0.48358749831674785</v>
+        <v>-0.4835874983167461</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>0.5422585549774555</v>
+        <v>0.5422585549774563</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>0.2622516036679583</v>
+        <v>0.26225160366795297</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>0.3712129944603788</v>
+        <v>0.37121299446037703</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>0.38069738283788546</v>
+        <v>0.3806973828378828</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>0.2874376419068083</v>
+        <v>0.28743764190680565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>1.1412639887653606</v>
+        <v>1.1412639887653633</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>0.1697142638300746</v>
+        <v>0.16971426383007504</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-1.1334375512622232</v>
+        <v>-1.133437551262225</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>-0.2979431985707941</v>
+        <v>-0.2979431985707932</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>0.7286634832335324</v>
+        <v>0.7286634832335341</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>-0.5770593588539126</v>
+        <v>-0.5770593588539112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>0.20722295089778253</v>
+        <v>0.2072229508977843</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>-0.7673821938302439</v>
+        <v>-0.7673821938302412</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>0.9557964154429204</v>
+        <v>0.9557964154429159</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>-0.21973872939252392</v>
+        <v>-0.2197387293925217</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>-0.21447872647547128</v>
+        <v>-0.21447872647546973</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>-0.2795079890519041</v>
+        <v>-0.27950798905190144</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>-0.0023126682492113915</v>
+        <v>-0.002312668249210059</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>0.019939838145112354</v>
+        <v>0.019939838145112798</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-0.24207356311639083</v>
+        <v>-0.24207356311638906</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>1.3973145346183373</v>
+        <v>1.3973145346183387</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>-0.5730878275344331</v>
+        <v>-0.5730878275344327</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-0.9049406022674344</v>
+        <v>-0.9049406022674336</v>
       </c>
     </row>
     <row r="79">
@@ -3000,21 +3000,21 @@
         <v>1.2072229508977834</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>0.23261780616975614</v>
+        <v>0.2326178061697579</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-1.0442035845570778</v>
+        <v>-1.044203584557085</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="145">
-        <v>0.20722295089778342</v>
+        <v>0.2072229508977852</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>0.23261780616975614</v>
+        <v>0.2326178061697579</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>-0.044203584557078734</v>
+        <v>-0.044203584557083175</v>
       </c>
     </row>
     <row r="81">
@@ -3319,28 +3319,28 @@
         <v>3.2708333333333335</v>
       </c>
       <c r="D6" t="n" s="193">
-        <v>-0.9749578851979769</v>
+        <v>-0.9749578851973439</v>
       </c>
       <c r="E6" t="n" s="194">
-        <v>-12.033110347604913</v>
+        <v>-12.033110347600482</v>
       </c>
       <c r="F6" t="n" s="195">
-        <v>-12.704670744979524</v>
+        <v>-12.704670744975079</v>
       </c>
       <c r="G6" t="n" s="196">
-        <v>-12.421790458331364</v>
+        <v>-12.421790458326903</v>
       </c>
       <c r="H6" t="n" s="197">
-        <v>-12.957601220815501</v>
+        <v>-12.957601220811021</v>
       </c>
       <c r="I6" t="n" s="198">
-        <v>-11.538001845486672</v>
+        <v>-11.538001845482174</v>
       </c>
       <c r="J6" t="n" s="199">
-        <v>-8.973935275133783</v>
+        <v>-8.973935275129264</v>
       </c>
       <c r="K6" t="n" s="200">
-        <v>-6.824705196385838</v>
+        <v>-6.824705196381408</v>
       </c>
       <c r="L6" t="n" s="201">
         <v>1.0</v>
@@ -3375,28 +3375,28 @@
         <v>3.25</v>
       </c>
       <c r="D7" t="n" s="193">
-        <v>-0.951534183230709</v>
+        <v>-0.951534183230077</v>
       </c>
       <c r="E7" t="n" s="194">
-        <v>-12.009686645637645</v>
+        <v>-12.009686645633215</v>
       </c>
       <c r="F7" t="n" s="195">
-        <v>-12.657823341044988</v>
+        <v>-12.657823341040546</v>
       </c>
       <c r="G7" t="n" s="196">
-        <v>-12.351519352429559</v>
+        <v>-12.351519352425102</v>
       </c>
       <c r="H7" t="n" s="197">
-        <v>-12.86390641294643</v>
+        <v>-12.863906412941953</v>
       </c>
       <c r="I7" t="n" s="198">
-        <v>-11.420883335650334</v>
+        <v>-11.42088333564584</v>
       </c>
       <c r="J7" t="n" s="199">
-        <v>-8.833393063330178</v>
+        <v>-8.833393063325659</v>
       </c>
       <c r="K7" t="n" s="200">
-        <v>-6.660739282614963</v>
+        <v>-6.660739282610539</v>
       </c>
       <c r="L7" t="n" s="201">
         <v>1.0</v>
@@ -3431,28 +3431,28 @@
         <v>3.4791666666666665</v>
       </c>
       <c r="D8" t="n" s="193">
-        <v>-1.2076599813569169</v>
+        <v>-1.2076599813562847</v>
       </c>
       <c r="E8" t="n" s="194">
-        <v>-12.265812443763853</v>
+        <v>-12.265812443759422</v>
       </c>
       <c r="F8" t="n" s="195">
-        <v>-13.170074937297404</v>
+        <v>-13.170074937292961</v>
       </c>
       <c r="G8" t="n" s="196">
-        <v>-13.119896746808184</v>
+        <v>-13.119896746803725</v>
       </c>
       <c r="H8" t="n" s="197">
-        <v>-13.88840960545126</v>
+        <v>-13.888409605446784</v>
       </c>
       <c r="I8" t="n" s="198">
-        <v>-12.701512326281376</v>
+        <v>-12.701512326276879</v>
       </c>
       <c r="J8" t="n" s="199">
-        <v>-10.370147852087424</v>
+        <v>-10.370147852082908</v>
       </c>
       <c r="K8" t="n" s="200">
-        <v>-8.453619869498418</v>
+        <v>-8.453619869493993</v>
       </c>
       <c r="L8" t="n" s="201">
         <v>1.0</v>
@@ -3619,7 +3619,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n" s="251">
-        <v>0.3673881455165342</v>
+        <v>0.3673881455165501</v>
       </c>
     </row>
     <row r="21">
@@ -3627,7 +3627,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n" s="251">
-        <v>0.3897254760440552</v>
+        <v>0.3897254760440705</v>
       </c>
     </row>
     <row r="22">
@@ -3635,7 +3635,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n" s="251">
-        <v>0.13123616425834278</v>
+        <v>0.1312361642583603</v>
       </c>
     </row>
     <row r="23">
@@ -3687,25 +3687,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>0.9203219374856606</v>
+        <v>0.8794503309267123</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>-0.1529877113985111</v>
+        <v>-0.2804724502418827</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.878407966092632</v>
+        <v>0.7791150591046506</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>1.063547812324032</v>
+        <v>1.0296480978193154</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>0.3190383756746347</v>
+        <v>0.17178970091917045</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.7496974125597369</v>
+        <v>0.8636028626292205</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3716,25 +3716,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>0.9343107177325398</v>
+        <v>0.9818562778290243</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>-0.119020822542152</v>
+        <v>0.025219654672418122</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.9052588590372904</v>
+        <v>0.9798797597800601</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>1.124168545156742</v>
+        <v>1.1689846836515845</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>0.5544823365935821</v>
+        <v>0.7272347474531909</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.579248790769475</v>
+        <v>0.4670821635633658</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3745,25 +3745,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>0.8337199065232715</v>
+        <v>0.8560426343709961</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>-0.46400442584712276</v>
+        <v>-0.3916190057177327</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.6426445747127987</v>
+        <v>0.6953397428599213</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>0.937484119376469</v>
+        <v>0.9573517223796318</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>-0.2450655834979249</v>
+        <v>-0.1529868405019117</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.8064056508691921</v>
+        <v>0.878408652883168</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3774,25 +3774,25 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>0.6858513953421491</v>
+        <v>0.9968737471761906</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>8.69561686156463</v>
+        <v>8.56890239985734</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>3.449505765082976E-18</v>
+        <v>1.0447603432617699E-17</v>
       </c>
       <c r="E30" t="n" s="274">
-        <v>2.0697034590497857E-17</v>
+        <v>6.268562059570619E-17</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.3887809433108882</v>
+        <v>1.4526414624961999</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>1.2707617525660102</v>
+        <v>1.3580104029416062</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.2038134192723608</v>
+        <v>0.17446038321361715</v>
       </c>
       <c r="I30" t="n" s="278">
         <v>1.0</v>
@@ -3803,28 +3803,28 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>1.6987226947100729</v>
+        <v>1.7644257896581632</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.9256852486930407</v>
+        <v>0.969015026083151</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.354609576121464</v>
+        <v>0.33253769213670514</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.6376683014227933</v>
+        <v>1.6132011873267242</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>3.874147034968781</v>
+        <v>3.684409618177364</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>1.0699879942369243E-4</v>
+        <v>2.2923334671777452E-4</v>
       </c>
       <c r="I31" t="n" s="278">
-        <v>9.629891948132319E-4</v>
+        <v>0.0020631001204599706</v>
       </c>
     </row>
     <row r="32">
@@ -3832,28 +3832,28 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.2589974321748119</v>
+        <v>1.2703127584310334</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>1.4295854083371449</v>
+        <v>1.458154969651846</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.15283604593054678</v>
+        <v>0.14479783259349666</v>
       </c>
       <c r="E32" t="n" s="274">
-        <v>0.7641802296527339</v>
+        <v>0.7239891629674833</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.4407645797629332</v>
+        <v>1.4779670931030828</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>2.858855395919513</v>
+        <v>3.066074623599579</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>0.004251725494225514</v>
+        <v>0.002168891764881848</v>
       </c>
       <c r="I32" t="n" s="278">
-        <v>0.0297620784595786</v>
+        <v>0.015182242354172936</v>
       </c>
     </row>
     <row r="33">
@@ -3861,28 +3861,28 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.1058005046084205</v>
+        <v>1.1141104738856502</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>12.094958813857822</v>
+        <v>12.55305032423555</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>1.122985604272915E-33</v>
+        <v>3.824867120192773E-36</v>
       </c>
       <c r="E33" t="n" s="274">
-        <v>7.860899229910406E-33</v>
+        <v>2.677406984134941E-35</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.4221679953832636</v>
+        <v>1.4495529764710058</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>3.1347601275882573</v>
+        <v>3.382910356416719</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>0.0017199468772857325</v>
+        <v>7.17220391153172E-4</v>
       </c>
       <c r="I33" t="n" s="278">
-        <v>0.01375957501828586</v>
+        <v>0.005737763129225376</v>
       </c>
     </row>
     <row r="34">
@@ -3890,10 +3890,10 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>1.0478034400188498</v>
+        <v>1.1868578542352117</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>345.8800708066086</v>
+        <v>366.2526572441749</v>
       </c>
       <c r="D34" t="n" s="273">
         <v>0.0</v>
@@ -3902,13 +3902,13 @@
         <v>0.0</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>0.9836433254182783</v>
+        <v>0.975007861074219</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>-0.25528105903740245</v>
+        <v>-0.31414104937764914</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>0.7985060281107182</v>
+        <v>0.7534139135352697</v>
       </c>
       <c r="I34" t="n" s="278">
         <v>1.0</v>
@@ -3919,10 +3919,10 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>0.7165162155212836</v>
+        <v>0.7801937783017616</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>19707.33033954465</v>
+        <v>21235.806923185082</v>
       </c>
       <c r="D35" t="n" s="273">
         <v>0.0</v>
@@ -3931,13 +3931,13 @@
         <v>0.0</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>0.9617322228122862</v>
+        <v>0.9878597251545528</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>-0.10004655837940066</v>
+        <v>-0.018598917646154327</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.920307362597383</v>
+        <v>0.9851610662807645</v>
       </c>
       <c r="I35" t="n" s="278">
         <v>1.0</v>
@@ -5020,16 +5020,16 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G2" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H2" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I2" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="3">
@@ -5049,16 +5049,16 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="n" s="302">
-        <v>0.3551540343464916</v>
+        <v>0.3551540343464929</v>
       </c>
       <c r="G3" t="n" s="303">
-        <v>-0.6332373716211535</v>
+        <v>-0.633237371621258</v>
       </c>
       <c r="H3" t="n" s="304">
-        <v>0.4037340893334307</v>
+        <v>0.4037340893334398</v>
       </c>
       <c r="I3" t="n" s="305">
-        <v>-0.5485782183796413</v>
+        <v>-0.5485782183797234</v>
       </c>
     </row>
     <row r="4">
@@ -5078,16 +5078,16 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="n" s="302">
-        <v>0.6481785259997596</v>
+        <v>0.6481785259997521</v>
       </c>
       <c r="G4" t="n" s="303">
-        <v>-0.25335744387103687</v>
+        <v>-0.25335744387100784</v>
       </c>
       <c r="H4" t="n" s="304">
-        <v>0.6383495252158234</v>
+        <v>0.6383495252158129</v>
       </c>
       <c r="I4" t="n" s="305">
-        <v>-0.27239609690516625</v>
+        <v>-0.27239609690514194</v>
       </c>
     </row>
     <row r="5">
@@ -5107,16 +5107,16 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="n" s="302">
-        <v>0.46418965527244643</v>
+        <v>0.4641896552724327</v>
       </c>
       <c r="G5" t="n" s="303">
-        <v>-0.6020279922733464</v>
+        <v>-0.6020279922733152</v>
       </c>
       <c r="H5" t="n" s="304">
-        <v>0.46620709949251243</v>
+        <v>0.4662070994925013</v>
       </c>
       <c r="I5" t="n" s="305">
-        <v>-0.6008806866384437</v>
+        <v>-0.6008806866384075</v>
       </c>
     </row>
     <row r="6">
@@ -5136,16 +5136,16 @@
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G6" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H6" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I6" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="7">
@@ -5165,16 +5165,16 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="n" s="302">
-        <v>0.7021339246846893</v>
+        <v>0.7021339246846763</v>
       </c>
       <c r="G7" t="n" s="303">
-        <v>-0.27685423007402377</v>
+        <v>-0.27685423007399684</v>
       </c>
       <c r="H7" t="n" s="304">
-        <v>0.7014474462333058</v>
+        <v>0.7014474462332879</v>
       </c>
       <c r="I7" t="n" s="305">
-        <v>-0.27840413168352807</v>
+        <v>-0.27840413168351175</v>
       </c>
     </row>
     <row r="8">
@@ -5194,16 +5194,16 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="n" s="302">
-        <v>1.7339324980777346</v>
+        <v>1.7339324980777764</v>
       </c>
       <c r="G8" t="n" s="303">
-        <v>1.1178475888654762</v>
+        <v>1.1178475888654702</v>
       </c>
       <c r="H8" t="n" s="304">
-        <v>1.7393907203905068</v>
+        <v>1.7393907203905585</v>
       </c>
       <c r="I8" t="n" s="305">
-        <v>1.1274364759753626</v>
+        <v>1.127436475975367</v>
       </c>
     </row>
     <row r="9">
@@ -5223,16 +5223,16 @@
         <v>8.0</v>
       </c>
       <c r="F9" t="n" s="302">
-        <v>0.12308833347096715</v>
+        <v>0.12308833347096265</v>
       </c>
       <c r="G9" t="n" s="303">
-        <v>-1.1785844129442349</v>
+        <v>-1.1785844129442538</v>
       </c>
       <c r="H9" t="n" s="304">
-        <v>0.12133994069384037</v>
+        <v>0.12133994069383697</v>
       </c>
       <c r="I9" t="n" s="305">
-        <v>-1.1852031969567596</v>
+        <v>-1.1852031969567745</v>
       </c>
     </row>
     <row r="10">
@@ -5252,16 +5252,16 @@
         <v>9.0</v>
       </c>
       <c r="F10" t="n" s="302">
-        <v>0.12471151116250784</v>
+        <v>0.12471151116249936</v>
       </c>
       <c r="G10" t="n" s="303">
-        <v>-1.6368984239585656</v>
+        <v>-1.6368984239584714</v>
       </c>
       <c r="H10" t="n" s="304">
-        <v>0.12821965805861094</v>
+        <v>0.1282196580586038</v>
       </c>
       <c r="I10" t="n" s="305">
-        <v>-1.634957694557041</v>
+        <v>-1.6349576945569384</v>
       </c>
     </row>
     <row r="11">
@@ -5281,16 +5281,16 @@
         <v>10.0</v>
       </c>
       <c r="F11" t="n" s="302">
-        <v>0.12308833347096715</v>
+        <v>0.12308833347096265</v>
       </c>
       <c r="G11" t="n" s="303">
-        <v>-1.1785844129442349</v>
+        <v>-1.1785844129442538</v>
       </c>
       <c r="H11" t="n" s="304">
-        <v>0.12133994069384037</v>
+        <v>0.12133994069383697</v>
       </c>
       <c r="I11" t="n" s="305">
-        <v>-1.1852031969567596</v>
+        <v>-1.1852031969567745</v>
       </c>
     </row>
     <row r="12">
@@ -5310,16 +5310,16 @@
         <v>11.0</v>
       </c>
       <c r="F12" t="n" s="302">
-        <v>0.27454262693301884</v>
+        <v>0.27454262693301484</v>
       </c>
       <c r="G12" t="n" s="303">
-        <v>-0.720041391345144</v>
+        <v>-0.720041391345154</v>
       </c>
       <c r="H12" t="n" s="304">
-        <v>0.27463454706137685</v>
+        <v>0.2746345470613726</v>
       </c>
       <c r="I12" t="n" s="305">
-        <v>-0.7194513597283156</v>
+        <v>-0.7194513597283266</v>
       </c>
     </row>
     <row r="13">
@@ -5339,16 +5339,16 @@
         <v>12.0</v>
       </c>
       <c r="F13" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G13" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H13" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I13" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="14">
@@ -5368,16 +5368,16 @@
         <v>13.0</v>
       </c>
       <c r="F14" t="n" s="302">
-        <v>0.37012015858990127</v>
+        <v>0.3701201585898965</v>
       </c>
       <c r="G14" t="n" s="303">
-        <v>-0.30302332918114117</v>
+        <v>-0.3030233291812134</v>
       </c>
       <c r="H14" t="n" s="304">
-        <v>0.35513281123890106</v>
+        <v>0.3551328112388851</v>
       </c>
       <c r="I14" t="n" s="305">
-        <v>-0.3351357633177815</v>
+        <v>-0.3351357633178761</v>
       </c>
     </row>
     <row r="15">
@@ -5397,16 +5397,16 @@
         <v>14.0</v>
       </c>
       <c r="F15" t="n" s="302">
-        <v>0.6544126287798122</v>
+        <v>0.654412628779773</v>
       </c>
       <c r="G15" t="n" s="303">
-        <v>-0.4187144070781351</v>
+        <v>-0.4187144070782969</v>
       </c>
       <c r="H15" t="n" s="304">
-        <v>0.6820648658914588</v>
+        <v>0.6820648658914089</v>
       </c>
       <c r="I15" t="n" s="305">
-        <v>-0.3647153574830636</v>
+        <v>-0.3647153574832357</v>
       </c>
     </row>
     <row r="16">
@@ -5426,16 +5426,16 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G16" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H16" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I16" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="17">
@@ -5455,16 +5455,16 @@
         <v>16.0</v>
       </c>
       <c r="F17" t="n" s="302">
-        <v>0.019437002548001504</v>
+        <v>0.019437002547991186</v>
       </c>
       <c r="G17" t="n" s="303">
-        <v>-2.0751094029907735</v>
+        <v>-2.075109402990835</v>
       </c>
       <c r="H17" t="n" s="304">
-        <v>0.019735393762410652</v>
+        <v>0.019735393762399342</v>
       </c>
       <c r="I17" t="n" s="305">
-        <v>-2.080207710579549</v>
+        <v>-2.08020771057962</v>
       </c>
     </row>
     <row r="18">
@@ -5484,16 +5484,16 @@
         <v>17.0</v>
       </c>
       <c r="F18" t="n" s="302">
-        <v>0.37012015858990127</v>
+        <v>0.3701201585898965</v>
       </c>
       <c r="G18" t="n" s="303">
-        <v>-0.30302332918114117</v>
+        <v>-0.3030233291812134</v>
       </c>
       <c r="H18" t="n" s="304">
-        <v>0.35513281123890106</v>
+        <v>0.3551328112388851</v>
       </c>
       <c r="I18" t="n" s="305">
-        <v>-0.3351357633177815</v>
+        <v>-0.3351357633178761</v>
       </c>
     </row>
     <row r="19">
@@ -5513,16 +5513,16 @@
         <v>18.0</v>
       </c>
       <c r="F19" t="n" s="302">
-        <v>0.5071592005943738</v>
+        <v>0.5071592005943811</v>
       </c>
       <c r="G19" t="n" s="303">
-        <v>-0.5057820978852696</v>
+        <v>-0.5057820978851894</v>
       </c>
       <c r="H19" t="n" s="304">
-        <v>0.4815927248917369</v>
+        <v>0.48159272489175</v>
       </c>
       <c r="I19" t="n" s="305">
-        <v>-0.5654686991507538</v>
+        <v>-0.565468699150657</v>
       </c>
     </row>
     <row r="20">
@@ -5542,16 +5542,16 @@
         <v>19.0</v>
       </c>
       <c r="F20" t="n" s="302">
-        <v>0.019437002548001504</v>
+        <v>0.019437002547991186</v>
       </c>
       <c r="G20" t="n" s="303">
-        <v>-2.0751094029907735</v>
+        <v>-2.075109402990835</v>
       </c>
       <c r="H20" t="n" s="304">
-        <v>0.019735393762410652</v>
+        <v>0.019735393762399342</v>
       </c>
       <c r="I20" t="n" s="305">
-        <v>-2.080207710579549</v>
+        <v>-2.08020771057962</v>
       </c>
     </row>
     <row r="21">
@@ -5571,16 +5571,16 @@
         <v>20.0</v>
       </c>
       <c r="F21" t="n" s="302">
-        <v>0.44874728822626814</v>
+        <v>0.4487472882262655</v>
       </c>
       <c r="G21" t="n" s="303">
-        <v>-0.9578006083448511</v>
+        <v>-0.9578006083447982</v>
       </c>
       <c r="H21" t="n" s="304">
-        <v>0.45259320227913796</v>
+        <v>0.4525932022791392</v>
       </c>
       <c r="I21" t="n" s="305">
-        <v>-0.9488708878755543</v>
+        <v>-0.9488708878754943</v>
       </c>
     </row>
     <row r="22">
@@ -5600,16 +5600,16 @@
         <v>21.0</v>
       </c>
       <c r="F22" t="n" s="302">
-        <v>0.33350373136022204</v>
+        <v>0.33350373136021755</v>
       </c>
       <c r="G22" t="n" s="303">
-        <v>-0.6864273459696777</v>
+        <v>-0.686427345969667</v>
       </c>
       <c r="H22" t="n" s="304">
-        <v>0.3385118544021271</v>
+        <v>0.3385118544021215</v>
       </c>
       <c r="I22" t="n" s="305">
-        <v>-0.6775223854559049</v>
+        <v>-0.6775223854558967</v>
       </c>
     </row>
     <row r="23">
@@ -5629,16 +5629,16 @@
         <v>22.0</v>
       </c>
       <c r="F23" t="n" s="302">
-        <v>0.2982467255533543</v>
+        <v>0.29824672555335535</v>
       </c>
       <c r="G23" t="n" s="303">
-        <v>-1.4401173418457784</v>
+        <v>-1.4401173418456925</v>
       </c>
       <c r="H23" t="n" s="304">
-        <v>0.29719496973337395</v>
+        <v>0.29719496973337545</v>
       </c>
       <c r="I23" t="n" s="305">
-        <v>-1.4465553759698702</v>
+        <v>-1.4465553759697871</v>
       </c>
     </row>
     <row r="24">
@@ -5658,16 +5658,16 @@
         <v>23.0</v>
       </c>
       <c r="F24" t="n" s="302">
-        <v>0.020165594709805786</v>
+        <v>0.020165594709804436</v>
       </c>
       <c r="G24" t="n" s="303">
-        <v>-3.3993305745054716</v>
+        <v>-3.3993305745053317</v>
       </c>
       <c r="H24" t="n" s="304">
-        <v>0.02000302504649027</v>
+        <v>0.020003025046488234</v>
       </c>
       <c r="I24" t="n" s="305">
-        <v>-3.4082071708106723</v>
+        <v>-3.4082071708105586</v>
       </c>
     </row>
     <row r="25">
@@ -5687,16 +5687,16 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="n" s="302">
-        <v>2.2971910786553775</v>
+        <v>2.2971910786553305</v>
       </c>
       <c r="G25" t="n" s="303">
-        <v>1.8198359212563902</v>
+        <v>1.8198359212563613</v>
       </c>
       <c r="H25" t="n" s="304">
-        <v>2.2950160399558444</v>
+        <v>2.295016039955804</v>
       </c>
       <c r="I25" t="n" s="305">
-        <v>1.8175705543392078</v>
+        <v>1.8175705543391836</v>
       </c>
     </row>
     <row r="26">
@@ -5716,16 +5716,16 @@
         <v>25.0</v>
       </c>
       <c r="F26" t="n" s="302">
-        <v>0.1746245025101312</v>
+        <v>0.1746245025101143</v>
       </c>
       <c r="G26" t="n" s="303">
-        <v>-0.2375988992644128</v>
+        <v>-0.23759889926437716</v>
       </c>
       <c r="H26" t="n" s="304">
-        <v>0.17754575792932195</v>
+        <v>0.1775457579293049</v>
       </c>
       <c r="I26" t="n" s="305">
-        <v>-0.24356687242978836</v>
+        <v>-0.24356687242975306</v>
       </c>
     </row>
     <row r="27">
@@ -5745,16 +5745,16 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="n" s="302">
-        <v>0.1118841155943975</v>
+        <v>0.11188411559440191</v>
       </c>
       <c r="G27" t="n" s="303">
-        <v>-2.435459189152779</v>
+        <v>-2.4354591891527804</v>
       </c>
       <c r="H27" t="n" s="304">
-        <v>0.11023505609101339</v>
+        <v>0.11023505609101884</v>
       </c>
       <c r="I27" t="n" s="305">
-        <v>-2.4472483687428306</v>
+        <v>-2.4472483687428213</v>
       </c>
     </row>
     <row r="28">
@@ -5774,16 +5774,16 @@
         <v>27.0</v>
       </c>
       <c r="F28" t="n" s="302">
-        <v>0.027927833698059696</v>
+        <v>0.02792783369808849</v>
       </c>
       <c r="G28" t="n" s="303">
-        <v>-2.5434550484060923</v>
+        <v>-2.543455048405951</v>
       </c>
       <c r="H28" t="n" s="304">
-        <v>0.031342361323787586</v>
+        <v>0.0313423613238185</v>
       </c>
       <c r="I28" t="n" s="305">
-        <v>-2.530808686770061</v>
+        <v>-2.530808686769909</v>
       </c>
     </row>
     <row r="29">
@@ -5803,16 +5803,16 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="n" s="302">
-        <v>0.1746245025101312</v>
+        <v>0.1746245025101143</v>
       </c>
       <c r="G29" t="n" s="303">
-        <v>-0.2375988992644128</v>
+        <v>-0.23759889926437716</v>
       </c>
       <c r="H29" t="n" s="304">
-        <v>0.17754575792932195</v>
+        <v>0.1775457579293049</v>
       </c>
       <c r="I29" t="n" s="305">
-        <v>-0.24356687242978836</v>
+        <v>-0.24356687242975306</v>
       </c>
     </row>
     <row r="30">
@@ -5832,16 +5832,16 @@
         <v>29.0</v>
       </c>
       <c r="F30" t="n" s="302">
-        <v>7.0766662642834115</v>
+        <v>7.0766662642833715</v>
       </c>
       <c r="G30" t="n" s="303">
-        <v>3.7802757517815078</v>
+        <v>3.780275751781318</v>
       </c>
       <c r="H30" t="n" s="304">
-        <v>7.018031719861508</v>
+        <v>7.0180317198614555</v>
       </c>
       <c r="I30" t="n" s="305">
-        <v>3.769007054859345</v>
+        <v>3.769007054859154</v>
       </c>
     </row>
     <row r="31">
@@ -5861,16 +5861,16 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="n" s="302">
-        <v>1.8458391430922942</v>
+        <v>1.8458391430923289</v>
       </c>
       <c r="G31" t="n" s="303">
-        <v>1.229969655274755</v>
+        <v>1.229969655274732</v>
       </c>
       <c r="H31" t="n" s="304">
-        <v>1.8927344513213595</v>
+        <v>1.8927344513214108</v>
       </c>
       <c r="I31" t="n" s="305">
-        <v>1.2805244953618555</v>
+        <v>1.2805244953618464</v>
       </c>
     </row>
     <row r="32">
@@ -5890,16 +5890,16 @@
         <v>31.0</v>
       </c>
       <c r="F32" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G32" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H32" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I32" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="33">
@@ -5919,16 +5919,16 @@
         <v>32.0</v>
       </c>
       <c r="F33" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G33" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H33" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I33" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="34">
@@ -5948,16 +5948,16 @@
         <v>33.0</v>
       </c>
       <c r="F34" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G34" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H34" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I34" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="35">
@@ -5977,16 +5977,16 @@
         <v>34.0</v>
       </c>
       <c r="F35" t="n" s="302">
-        <v>0.28905578136662075</v>
+        <v>0.28905578136661786</v>
       </c>
       <c r="G35" t="n" s="303">
-        <v>-0.6861944426413562</v>
+        <v>-0.6861944426413635</v>
       </c>
       <c r="H35" t="n" s="304">
-        <v>0.2904256918121324</v>
+        <v>0.2904256918121285</v>
       </c>
       <c r="I35" t="n" s="305">
-        <v>-0.6826965508701559</v>
+        <v>-0.6826965508701653</v>
       </c>
     </row>
     <row r="36">
@@ -6006,16 +6006,16 @@
         <v>35.0</v>
       </c>
       <c r="F36" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G36" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H36" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I36" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="37">
@@ -6035,16 +6035,16 @@
         <v>36.0</v>
       </c>
       <c r="F37" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G37" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H37" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I37" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="38">
@@ -6064,16 +6064,16 @@
         <v>37.0</v>
       </c>
       <c r="F38" t="n" s="302">
-        <v>2.0155332388530436</v>
+        <v>2.015533238853082</v>
       </c>
       <c r="G38" t="n" s="303">
-        <v>1.1643643763550298</v>
+        <v>1.1643643763550366</v>
       </c>
       <c r="H38" t="n" s="304">
-        <v>1.976038510890304</v>
+        <v>1.9760385108903569</v>
       </c>
       <c r="I38" t="n" s="305">
-        <v>1.1391741258978059</v>
+        <v>1.1391741258978236</v>
       </c>
     </row>
     <row r="39">
@@ -6093,16 +6093,16 @@
         <v>38.0</v>
       </c>
       <c r="F39" t="n" s="302">
-        <v>0.8771930604848861</v>
+        <v>0.8771930604849087</v>
       </c>
       <c r="G39" t="n" s="303">
-        <v>0.03638991724478746</v>
+        <v>0.03638991724485399</v>
       </c>
       <c r="H39" t="n" s="304">
-        <v>0.8546559949925316</v>
+        <v>0.8546559949925386</v>
       </c>
       <c r="I39" t="n" s="305">
-        <v>-0.0029273008205162043</v>
+        <v>-0.0029273008204723505</v>
       </c>
     </row>
     <row r="40">
@@ -6122,16 +6122,16 @@
         <v>39.0</v>
       </c>
       <c r="F40" t="n" s="302">
-        <v>0.1847811807174116</v>
+        <v>0.18478118071740612</v>
       </c>
       <c r="G40" t="n" s="303">
-        <v>-1.088469822545068</v>
+        <v>-1.0884698225450593</v>
       </c>
       <c r="H40" t="n" s="304">
-        <v>0.18255563291731056</v>
+        <v>0.18255563291730523</v>
       </c>
       <c r="I40" t="n" s="305">
-        <v>-1.0989729762289544</v>
+        <v>-1.0989729762289449</v>
       </c>
     </row>
     <row r="41">
@@ -6151,16 +6151,16 @@
         <v>40.0</v>
       </c>
       <c r="F41" t="n" s="302">
-        <v>0.1746245025101312</v>
+        <v>0.1746245025101143</v>
       </c>
       <c r="G41" t="n" s="303">
-        <v>-0.2375988992644128</v>
+        <v>-0.23759889926437716</v>
       </c>
       <c r="H41" t="n" s="304">
-        <v>0.17754575792932195</v>
+        <v>0.1775457579293049</v>
       </c>
       <c r="I41" t="n" s="305">
-        <v>-0.24356687242978836</v>
+        <v>-0.24356687242975306</v>
       </c>
     </row>
     <row r="42">
@@ -6180,16 +6180,16 @@
         <v>41.0</v>
       </c>
       <c r="F42" t="n" s="302">
-        <v>0.7595207641433803</v>
+        <v>0.7595207641433895</v>
       </c>
       <c r="G42" t="n" s="303">
-        <v>0.021493299030895585</v>
+        <v>0.021493299030928226</v>
       </c>
       <c r="H42" t="n" s="304">
-        <v>0.7440531061274707</v>
+        <v>0.7440531061274757</v>
       </c>
       <c r="I42" t="n" s="305">
-        <v>-0.001002706456313729</v>
+        <v>-0.0010027064562849741</v>
       </c>
     </row>
     <row r="43">
@@ -6209,16 +6209,16 @@
         <v>42.0</v>
       </c>
       <c r="F43" t="n" s="302">
-        <v>0.2507139168779918</v>
+        <v>0.2507139168779965</v>
       </c>
       <c r="G43" t="n" s="303">
-        <v>-1.526727907355557</v>
+        <v>-1.5267279073556688</v>
       </c>
       <c r="H43" t="n" s="304">
-        <v>0.25128390891379204</v>
+        <v>0.2512839089138023</v>
       </c>
       <c r="I43" t="n" s="305">
-        <v>-1.534146937595953</v>
+        <v>-1.5341469375960357</v>
       </c>
     </row>
     <row r="44">
@@ -6238,16 +6238,16 @@
         <v>43.0</v>
       </c>
       <c r="F44" t="n" s="302">
-        <v>0.44998365218183944</v>
+        <v>0.44998365218182546</v>
       </c>
       <c r="G44" t="n" s="303">
-        <v>-0.6325563804059207</v>
+        <v>-0.6325563804058887</v>
       </c>
       <c r="H44" t="n" s="304">
-        <v>0.4508388676910342</v>
+        <v>0.45083886769102355</v>
       </c>
       <c r="I44" t="n" s="305">
-        <v>-0.6339302474814041</v>
+        <v>-0.6339302474813662</v>
       </c>
     </row>
     <row r="45">
@@ -6267,16 +6267,16 @@
         <v>44.0</v>
       </c>
       <c r="F45" t="n" s="302">
-        <v>0.17119116496743278</v>
+        <v>0.1711911649674498</v>
       </c>
       <c r="G45" t="n" s="303">
-        <v>-0.21170585128333075</v>
+        <v>-0.2117058512833423</v>
       </c>
       <c r="H45" t="n" s="304">
-        <v>0.17364930015498312</v>
+        <v>0.17364930015500044</v>
       </c>
       <c r="I45" t="n" s="305">
-        <v>-0.20776136148615398</v>
+        <v>-0.20776136148616475</v>
       </c>
     </row>
     <row r="46">
@@ -6296,16 +6296,16 @@
         <v>45.0</v>
       </c>
       <c r="F46" t="n" s="302">
-        <v>0.027927833698059696</v>
+        <v>0.02792783369808849</v>
       </c>
       <c r="G46" t="n" s="303">
-        <v>-2.5434550484060923</v>
+        <v>-2.543455048405951</v>
       </c>
       <c r="H46" t="n" s="304">
-        <v>0.031342361323787586</v>
+        <v>0.0313423613238185</v>
       </c>
       <c r="I46" t="n" s="305">
-        <v>-2.530808686770061</v>
+        <v>-2.530808686769909</v>
       </c>
     </row>
     <row r="47">
@@ -6325,16 +6325,16 @@
         <v>46.0</v>
       </c>
       <c r="F47" t="n" s="302">
-        <v>0.7238778052784763</v>
+        <v>0.7238778052784665</v>
       </c>
       <c r="G47" t="n" s="303">
-        <v>-0.32192573185067763</v>
+        <v>-0.32192573185070705</v>
       </c>
       <c r="H47" t="n" s="304">
-        <v>0.7236540925273796</v>
+        <v>0.7236540925273732</v>
       </c>
       <c r="I47" t="n" s="305">
-        <v>-0.3223207237420851</v>
+        <v>-0.32232072374210585</v>
       </c>
     </row>
     <row r="48">
@@ -6354,16 +6354,16 @@
         <v>47.0</v>
       </c>
       <c r="F48" t="n" s="302">
-        <v>0.7705322217517331</v>
+        <v>0.7705322217517264</v>
       </c>
       <c r="G48" t="n" s="303">
-        <v>-0.05693728942648757</v>
+        <v>-0.056937289426466586</v>
       </c>
       <c r="H48" t="n" s="304">
-        <v>0.7797554873361778</v>
+        <v>0.7797554873361692</v>
       </c>
       <c r="I48" t="n" s="305">
-        <v>-0.04458323809471504</v>
+        <v>-0.044583238094697664</v>
       </c>
     </row>
     <row r="49">
@@ -6383,16 +6383,16 @@
         <v>48.0</v>
       </c>
       <c r="F49" t="n" s="302">
-        <v>0.015516469959579218</v>
+        <v>0.015516469959573278</v>
       </c>
       <c r="G49" t="n" s="303">
-        <v>-2.609781698376854</v>
+        <v>-2.609781698376807</v>
       </c>
       <c r="H49" t="n" s="304">
-        <v>0.015902897897265917</v>
+        <v>0.015902897897259488</v>
       </c>
       <c r="I49" t="n" s="305">
-        <v>-2.610678470036906</v>
+        <v>-2.610678470036869</v>
       </c>
     </row>
   </sheetData>
@@ -6471,7 +6471,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" t="n" s="316">
-        <v>1.0</v>
+        <v>10170.0</v>
       </c>
       <c r="F2" t="n" s="317">
         <v>3.0</v>
@@ -6483,13 +6483,13 @@
         <v>21.0</v>
       </c>
       <c r="I2" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J2" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K2" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="3">
@@ -6506,7 +6506,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="316">
-        <v>2.0</v>
+        <v>10171.0</v>
       </c>
       <c r="F3" t="n" s="317">
         <v>3.0</v>
@@ -6518,13 +6518,13 @@
         <v>21.0</v>
       </c>
       <c r="I3" t="n" s="320">
-        <v>-0.9762084605558619</v>
+        <v>-0.9762084605557267</v>
       </c>
       <c r="J3" t="n" s="321">
-        <v>0.6072358659756261</v>
+        <v>0.6072358659756233</v>
       </c>
       <c r="K3" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="4">
@@ -6541,7 +6541,7 @@
         <v>5.0</v>
       </c>
       <c r="E4" t="n" s="316">
-        <v>3.0</v>
+        <v>10172.0</v>
       </c>
       <c r="F4" t="n" s="317">
         <v>3.0</v>
@@ -6553,13 +6553,13 @@
         <v>21.0</v>
       </c>
       <c r="I4" t="n" s="320">
-        <v>1.6669516748524151</v>
+        <v>1.6669516748523097</v>
       </c>
       <c r="J4" t="n" s="321">
-        <v>0.550970975460747</v>
+        <v>0.5509709754607007</v>
       </c>
       <c r="K4" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="5">
@@ -6576,7 +6576,7 @@
         <v>6.0</v>
       </c>
       <c r="E5" t="n" s="316">
-        <v>4.0</v>
+        <v>10174.0</v>
       </c>
       <c r="F5" t="n" s="317">
         <v>3.0</v>
@@ -6588,13 +6588,13 @@
         <v>21.0</v>
       </c>
       <c r="I5" t="n" s="320">
-        <v>1.6669516748524151</v>
+        <v>1.6669516748523097</v>
       </c>
       <c r="J5" t="n" s="321">
-        <v>0.550970975460747</v>
+        <v>0.5509709754607007</v>
       </c>
       <c r="K5" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="6">
@@ -6611,7 +6611,7 @@
         <v>1.0</v>
       </c>
       <c r="E6" t="n" s="316">
-        <v>5.0</v>
+        <v>10175.0</v>
       </c>
       <c r="F6" t="n" s="317">
         <v>3.0</v>
@@ -6623,13 +6623,13 @@
         <v>21.0</v>
       </c>
       <c r="I6" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J6" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K6" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="7">
@@ -6646,7 +6646,7 @@
         <v>6.0</v>
       </c>
       <c r="E7" t="n" s="316">
-        <v>6.0</v>
+        <v>10176.0</v>
       </c>
       <c r="F7" t="n" s="317">
         <v>3.0</v>
@@ -6658,13 +6658,13 @@
         <v>21.0</v>
       </c>
       <c r="I7" t="n" s="320">
-        <v>1.9430884188489488</v>
+        <v>1.943088418848786</v>
       </c>
       <c r="J7" t="n" s="321">
-        <v>0.5407204088882055</v>
+        <v>0.5407204088881628</v>
       </c>
       <c r="K7" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="8">
@@ -6681,7 +6681,7 @@
         <v>5.0</v>
       </c>
       <c r="E8" t="n" s="316">
-        <v>7.0</v>
+        <v>10181.0</v>
       </c>
       <c r="F8" t="n" s="317">
         <v>3.0</v>
@@ -6693,13 +6693,13 @@
         <v>21.0</v>
       </c>
       <c r="I8" t="n" s="320">
-        <v>0.1303798220549696</v>
+        <v>0.13037982205508894</v>
       </c>
       <c r="J8" t="n" s="321">
-        <v>0.4818013963235708</v>
+        <v>0.4818013963235589</v>
       </c>
       <c r="K8" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="9">
@@ -6716,7 +6716,7 @@
         <v>5.0</v>
       </c>
       <c r="E9" t="n" s="316">
-        <v>8.0</v>
+        <v>10183.0</v>
       </c>
       <c r="F9" t="n" s="317">
         <v>3.0</v>
@@ -6728,13 +6728,13 @@
         <v>21.0</v>
       </c>
       <c r="I9" t="n" s="320">
-        <v>0.9674484086037516</v>
+        <v>0.9674484086037922</v>
       </c>
       <c r="J9" t="n" s="321">
-        <v>0.5670111225758959</v>
+        <v>0.5670111225758493</v>
       </c>
       <c r="K9" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="10">
@@ -6751,7 +6751,7 @@
         <v>4.0</v>
       </c>
       <c r="E10" t="n" s="316">
-        <v>9.0</v>
+        <v>10184.0</v>
       </c>
       <c r="F10" t="n" s="317">
         <v>3.0</v>
@@ -6763,13 +6763,13 @@
         <v>21.0</v>
       </c>
       <c r="I10" t="n" s="320">
-        <v>0.35226178929352686</v>
+        <v>0.35226178929363244</v>
       </c>
       <c r="J10" t="n" s="321">
-        <v>0.5025459765719519</v>
+        <v>0.5025459765719338</v>
       </c>
       <c r="K10" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="11">
@@ -6786,7 +6786,7 @@
         <v>5.0</v>
       </c>
       <c r="E11" t="n" s="316">
-        <v>10.0</v>
+        <v>10185.0</v>
       </c>
       <c r="F11" t="n" s="317">
         <v>3.0</v>
@@ -6798,13 +6798,13 @@
         <v>21.0</v>
       </c>
       <c r="I11" t="n" s="320">
-        <v>0.9674484086037516</v>
+        <v>0.9674484086037922</v>
       </c>
       <c r="J11" t="n" s="321">
-        <v>0.5670111225758959</v>
+        <v>0.5670111225758493</v>
       </c>
       <c r="K11" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="12">
@@ -6821,7 +6821,7 @@
         <v>4.0</v>
       </c>
       <c r="E12" t="n" s="316">
-        <v>11.0</v>
+        <v>10186.0</v>
       </c>
       <c r="F12" t="n" s="317">
         <v>3.0</v>
@@ -6833,13 +6833,13 @@
         <v>21.0</v>
       </c>
       <c r="I12" t="n" s="320">
-        <v>0.9674484086037516</v>
+        <v>0.9674484086037922</v>
       </c>
       <c r="J12" t="n" s="321">
-        <v>0.5670111225758959</v>
+        <v>0.5670111225758493</v>
       </c>
       <c r="K12" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="13">
@@ -6856,7 +6856,7 @@
         <v>1.0</v>
       </c>
       <c r="E13" t="n" s="316">
-        <v>12.0</v>
+        <v>10188.0</v>
       </c>
       <c r="F13" t="n" s="317">
         <v>3.0</v>
@@ -6868,13 +6868,13 @@
         <v>21.0</v>
       </c>
       <c r="I13" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J13" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K13" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="14">
@@ -6891,7 +6891,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" t="n" s="316">
-        <v>13.0</v>
+        <v>10189.0</v>
       </c>
       <c r="F14" t="n" s="317">
         <v>3.0</v>
@@ -6903,13 +6903,13 @@
         <v>21.0</v>
       </c>
       <c r="I14" t="n" s="320">
-        <v>-1.4083210220535367</v>
+        <v>-1.4083210220534017</v>
       </c>
       <c r="J14" t="n" s="321">
-        <v>0.7702162802320317</v>
+        <v>0.7702162802320305</v>
       </c>
       <c r="K14" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="15">
@@ -6926,7 +6926,7 @@
         <v>6.0</v>
       </c>
       <c r="E15" t="n" s="316">
-        <v>14.0</v>
+        <v>10190.0</v>
       </c>
       <c r="F15" t="n" s="317">
         <v>3.0</v>
@@ -6938,13 +6938,13 @@
         <v>21.0</v>
       </c>
       <c r="I15" t="n" s="320">
-        <v>2.4658347657677164</v>
+        <v>2.4658347657674633</v>
       </c>
       <c r="J15" t="n" s="321">
-        <v>0.5686188018555822</v>
+        <v>0.5686188018555391</v>
       </c>
       <c r="K15" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="16">
@@ -6961,7 +6961,7 @@
         <v>1.0</v>
       </c>
       <c r="E16" t="n" s="316">
-        <v>15.0</v>
+        <v>10191.0</v>
       </c>
       <c r="F16" t="n" s="317">
         <v>3.0</v>
@@ -6973,13 +6973,13 @@
         <v>21.0</v>
       </c>
       <c r="I16" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J16" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K16" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="17">
@@ -6996,7 +6996,7 @@
         <v>4.0</v>
       </c>
       <c r="E17" t="n" s="316">
-        <v>16.0</v>
+        <v>10192.0</v>
       </c>
       <c r="F17" t="n" s="317">
         <v>3.0</v>
@@ -7008,13 +7008,13 @@
         <v>21.0</v>
       </c>
       <c r="I17" t="n" s="320">
-        <v>0.621002856457428</v>
+        <v>0.6210028564575173</v>
       </c>
       <c r="J17" t="n" s="321">
-        <v>0.5351741633813683</v>
+        <v>0.5351741633813399</v>
       </c>
       <c r="K17" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="18">
@@ -7031,7 +7031,7 @@
         <v>2.0</v>
       </c>
       <c r="E18" t="n" s="316">
-        <v>17.0</v>
+        <v>10193.0</v>
       </c>
       <c r="F18" t="n" s="317">
         <v>3.0</v>
@@ -7043,13 +7043,13 @@
         <v>21.0</v>
       </c>
       <c r="I18" t="n" s="320">
-        <v>-1.4083210220535367</v>
+        <v>-1.4083210220534017</v>
       </c>
       <c r="J18" t="n" s="321">
-        <v>0.7702162802320317</v>
+        <v>0.7702162802320305</v>
       </c>
       <c r="K18" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="19">
@@ -7066,7 +7066,7 @@
         <v>5.0</v>
       </c>
       <c r="E19" t="n" s="316">
-        <v>18.0</v>
+        <v>10197.0</v>
       </c>
       <c r="F19" t="n" s="317">
         <v>3.0</v>
@@ -7078,13 +7078,13 @@
         <v>21.0</v>
       </c>
       <c r="I19" t="n" s="320">
-        <v>0.35226178929352686</v>
+        <v>0.35226178929363244</v>
       </c>
       <c r="J19" t="n" s="321">
-        <v>0.5025459765719519</v>
+        <v>0.5025459765719338</v>
       </c>
       <c r="K19" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="20">
@@ -7101,7 +7101,7 @@
         <v>4.0</v>
       </c>
       <c r="E20" t="n" s="316">
-        <v>19.0</v>
+        <v>10198.0</v>
       </c>
       <c r="F20" t="n" s="317">
         <v>3.0</v>
@@ -7113,13 +7113,13 @@
         <v>21.0</v>
       </c>
       <c r="I20" t="n" s="320">
-        <v>0.621002856457428</v>
+        <v>0.6210028564575173</v>
       </c>
       <c r="J20" t="n" s="321">
-        <v>0.5351741633813683</v>
+        <v>0.5351741633813399</v>
       </c>
       <c r="K20" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="21">
@@ -7136,7 +7136,7 @@
         <v>3.0</v>
       </c>
       <c r="E21" t="n" s="316">
-        <v>20.0</v>
+        <v>10199.0</v>
       </c>
       <c r="F21" t="n" s="317">
         <v>3.0</v>
@@ -7148,13 +7148,13 @@
         <v>21.0</v>
       </c>
       <c r="I21" t="n" s="320">
-        <v>-0.06968823328701494</v>
+        <v>-0.06968823328689008</v>
       </c>
       <c r="J21" t="n" s="321">
-        <v>0.4734609255382812</v>
+        <v>0.47346092553827324</v>
       </c>
       <c r="K21" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="22">
@@ -7171,7 +7171,7 @@
         <v>4.0</v>
       </c>
       <c r="E22" t="n" s="316">
-        <v>21.0</v>
+        <v>10200.0</v>
       </c>
       <c r="F22" t="n" s="317">
         <v>3.0</v>
@@ -7183,13 +7183,13 @@
         <v>21.0</v>
       </c>
       <c r="I22" t="n" s="320">
-        <v>1.345152819576756</v>
+        <v>1.3451528195767097</v>
       </c>
       <c r="J22" t="n" s="321">
-        <v>0.5678357759241963</v>
+        <v>0.567835775924143</v>
       </c>
       <c r="K22" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="23">
@@ -7206,7 +7206,7 @@
         <v>4.0</v>
       </c>
       <c r="E23" t="n" s="316">
-        <v>22.0</v>
+        <v>10201.0</v>
       </c>
       <c r="F23" t="n" s="317">
         <v>3.0</v>
@@ -7218,13 +7218,13 @@
         <v>21.0</v>
       </c>
       <c r="I23" t="n" s="320">
-        <v>-0.06968823328701494</v>
+        <v>-0.06968823328689008</v>
       </c>
       <c r="J23" t="n" s="321">
-        <v>0.4734609255382812</v>
+        <v>0.47346092553827324</v>
       </c>
       <c r="K23" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="24">
@@ -7241,7 +7241,7 @@
         <v>3.0</v>
       </c>
       <c r="E24" t="n" s="316">
-        <v>23.0</v>
+        <v>10202.0</v>
       </c>
       <c r="F24" t="n" s="317">
         <v>3.0</v>
@@ -7253,13 +7253,13 @@
         <v>21.0</v>
       </c>
       <c r="I24" t="n" s="320">
-        <v>-0.06968823328701494</v>
+        <v>-0.06968823328689008</v>
       </c>
       <c r="J24" t="n" s="321">
-        <v>0.4734609255382812</v>
+        <v>0.47346092553827324</v>
       </c>
       <c r="K24" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="25">
@@ -7276,7 +7276,7 @@
         <v>1.0</v>
       </c>
       <c r="E25" t="n" s="316">
-        <v>24.0</v>
+        <v>10203.0</v>
       </c>
       <c r="F25" t="n" s="317">
         <v>3.0</v>
@@ -7288,13 +7288,13 @@
         <v>21.0</v>
       </c>
       <c r="I25" t="n" s="320">
-        <v>-0.26387077609489235</v>
+        <v>-0.2638707760947637</v>
       </c>
       <c r="J25" t="n" s="321">
-        <v>0.4774228849796572</v>
+        <v>0.4774228849796512</v>
       </c>
       <c r="K25" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="26">
@@ -7311,7 +7311,7 @@
         <v>7.0</v>
       </c>
       <c r="E26" t="n" s="316">
-        <v>25.0</v>
+        <v>10204.0</v>
       </c>
       <c r="F26" t="n" s="317">
         <v>3.0</v>
@@ -7323,13 +7323,13 @@
         <v>21.0</v>
       </c>
       <c r="I26" t="n" s="320">
-        <v>3.913919891413081</v>
+        <v>3.913919891413088</v>
       </c>
       <c r="J26" t="n" s="321">
-        <v>1.1669142195737956</v>
+        <v>1.1669142195736826</v>
       </c>
       <c r="K26" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="27">
@@ -7346,7 +7346,7 @@
         <v>3.0</v>
       </c>
       <c r="E27" t="n" s="316">
-        <v>26.0</v>
+        <v>10206.0</v>
       </c>
       <c r="F27" t="n" s="317">
         <v>3.0</v>
@@ -7358,13 +7358,13 @@
         <v>21.0</v>
       </c>
       <c r="I27" t="n" s="320">
-        <v>-0.26387077609489235</v>
+        <v>-0.2638707760947637</v>
       </c>
       <c r="J27" t="n" s="321">
-        <v>0.4774228849796572</v>
+        <v>0.4774228849796512</v>
       </c>
       <c r="K27" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="28">
@@ -7381,7 +7381,7 @@
         <v>2.0</v>
       </c>
       <c r="E28" t="n" s="316">
-        <v>27.0</v>
+        <v>10208.0</v>
       </c>
       <c r="F28" t="n" s="317">
         <v>3.0</v>
@@ -7393,13 +7393,13 @@
         <v>21.0</v>
       </c>
       <c r="I28" t="n" s="320">
-        <v>-0.6924518127932001</v>
+        <v>-0.6924518127930666</v>
       </c>
       <c r="J28" t="n" s="321">
-        <v>0.5335531734414554</v>
+        <v>0.5335531734414519</v>
       </c>
       <c r="K28" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="29">
@@ -7416,7 +7416,7 @@
         <v>7.0</v>
       </c>
       <c r="E29" t="n" s="316">
-        <v>28.0</v>
+        <v>10210.0</v>
       </c>
       <c r="F29" t="n" s="317">
         <v>3.0</v>
@@ -7428,13 +7428,13 @@
         <v>21.0</v>
       </c>
       <c r="I29" t="n" s="320">
-        <v>3.913919891413081</v>
+        <v>3.913919891413088</v>
       </c>
       <c r="J29" t="n" s="321">
-        <v>1.1669142195737956</v>
+        <v>1.1669142195736826</v>
       </c>
       <c r="K29" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="30">
@@ -7451,7 +7451,7 @@
         <v>7.0</v>
       </c>
       <c r="E30" t="n" s="316">
-        <v>29.0</v>
+        <v>10213.0</v>
       </c>
       <c r="F30" t="n" s="317">
         <v>3.0</v>
@@ -7463,13 +7463,13 @@
         <v>21.0</v>
       </c>
       <c r="I30" t="n" s="320">
-        <v>1.6669516748524151</v>
+        <v>1.6669516748523097</v>
       </c>
       <c r="J30" t="n" s="321">
-        <v>0.550970975460747</v>
+        <v>0.5509709754607007</v>
       </c>
       <c r="K30" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="31">
@@ -7486,7 +7486,7 @@
         <v>4.0</v>
       </c>
       <c r="E31" t="n" s="316">
-        <v>30.0</v>
+        <v>10214.0</v>
       </c>
       <c r="F31" t="n" s="317">
         <v>3.0</v>
@@ -7498,13 +7498,13 @@
         <v>21.0</v>
       </c>
       <c r="I31" t="n" s="320">
-        <v>0.1303798220549696</v>
+        <v>0.13037982205508894</v>
       </c>
       <c r="J31" t="n" s="321">
-        <v>0.4818013963235708</v>
+        <v>0.4818013963235589</v>
       </c>
       <c r="K31" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="32">
@@ -7521,7 +7521,7 @@
         <v>1.0</v>
       </c>
       <c r="E32" t="n" s="316">
-        <v>31.0</v>
+        <v>10215.0</v>
       </c>
       <c r="F32" t="n" s="317">
         <v>3.0</v>
@@ -7533,13 +7533,13 @@
         <v>21.0</v>
       </c>
       <c r="I32" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J32" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K32" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="33">
@@ -7556,7 +7556,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" t="n" s="316">
-        <v>32.0</v>
+        <v>10216.0</v>
       </c>
       <c r="F33" t="n" s="317">
         <v>3.0</v>
@@ -7568,13 +7568,13 @@
         <v>21.0</v>
       </c>
       <c r="I33" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J33" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K33" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="34">
@@ -7591,7 +7591,7 @@
         <v>1.0</v>
       </c>
       <c r="E34" t="n" s="316">
-        <v>33.0</v>
+        <v>10217.0</v>
       </c>
       <c r="F34" t="n" s="317">
         <v>3.0</v>
@@ -7603,13 +7603,13 @@
         <v>21.0</v>
       </c>
       <c r="I34" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J34" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K34" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="35">
@@ -7626,7 +7626,7 @@
         <v>4.0</v>
       </c>
       <c r="E35" t="n" s="316">
-        <v>34.0</v>
+        <v>10218.0</v>
       </c>
       <c r="F35" t="n" s="317">
         <v>3.0</v>
@@ -7638,13 +7638,13 @@
         <v>21.0</v>
       </c>
       <c r="I35" t="n" s="320">
-        <v>0.9674484086037516</v>
+        <v>0.9674484086037922</v>
       </c>
       <c r="J35" t="n" s="321">
-        <v>0.5670111225758959</v>
+        <v>0.5670111225758493</v>
       </c>
       <c r="K35" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="36">
@@ -7661,7 +7661,7 @@
         <v>1.0</v>
       </c>
       <c r="E36" t="n" s="316">
-        <v>35.0</v>
+        <v>10219.0</v>
       </c>
       <c r="F36" t="n" s="317">
         <v>3.0</v>
@@ -7673,13 +7673,13 @@
         <v>21.0</v>
       </c>
       <c r="I36" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J36" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K36" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="37">
@@ -7696,7 +7696,7 @@
         <v>1.0</v>
       </c>
       <c r="E37" t="n" s="316">
-        <v>36.0</v>
+        <v>10220.0</v>
       </c>
       <c r="F37" t="n" s="317">
         <v>3.0</v>
@@ -7708,13 +7708,13 @@
         <v>21.0</v>
       </c>
       <c r="I37" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J37" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K37" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="38">
@@ -7731,7 +7731,7 @@
         <v>6.0</v>
       </c>
       <c r="E38" t="n" s="316">
-        <v>37.0</v>
+        <v>10221.0</v>
       </c>
       <c r="F38" t="n" s="317">
         <v>3.0</v>
@@ -7743,13 +7743,13 @@
         <v>21.0</v>
       </c>
       <c r="I38" t="n" s="320">
-        <v>0.621002856457428</v>
+        <v>0.6210028564575173</v>
       </c>
       <c r="J38" t="n" s="321">
-        <v>0.5351741633813683</v>
+        <v>0.5351741633813399</v>
       </c>
       <c r="K38" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="39">
@@ -7766,7 +7766,7 @@
         <v>2.0</v>
       </c>
       <c r="E39" t="n" s="316">
-        <v>38.0</v>
+        <v>10223.0</v>
       </c>
       <c r="F39" t="n" s="317">
         <v>3.0</v>
@@ -7778,13 +7778,13 @@
         <v>21.0</v>
       </c>
       <c r="I39" t="n" s="320">
-        <v>0.1303798220549696</v>
+        <v>0.13037982205508894</v>
       </c>
       <c r="J39" t="n" s="321">
-        <v>0.4818013963235708</v>
+        <v>0.4818013963235589</v>
       </c>
       <c r="K39" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="40">
@@ -7801,7 +7801,7 @@
         <v>5.0</v>
       </c>
       <c r="E40" t="n" s="316">
-        <v>39.0</v>
+        <v>10224.0</v>
       </c>
       <c r="F40" t="n" s="317">
         <v>3.0</v>
@@ -7813,13 +7813,13 @@
         <v>21.0</v>
       </c>
       <c r="I40" t="n" s="320">
-        <v>1.345152819576756</v>
+        <v>1.3451528195767097</v>
       </c>
       <c r="J40" t="n" s="321">
-        <v>0.5678357759241963</v>
+        <v>0.567835775924143</v>
       </c>
       <c r="K40" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="41">
@@ -7836,7 +7836,7 @@
         <v>7.0</v>
       </c>
       <c r="E41" t="n" s="316">
-        <v>40.0</v>
+        <v>10226.0</v>
       </c>
       <c r="F41" t="n" s="317">
         <v>3.0</v>
@@ -7848,13 +7848,13 @@
         <v>21.0</v>
       </c>
       <c r="I41" t="n" s="320">
-        <v>3.913919891413081</v>
+        <v>3.913919891413088</v>
       </c>
       <c r="J41" t="n" s="321">
-        <v>1.1669142195737956</v>
+        <v>1.1669142195736826</v>
       </c>
       <c r="K41" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="42">
@@ -7871,7 +7871,7 @@
         <v>3.0</v>
       </c>
       <c r="E42" t="n" s="316">
-        <v>41.0</v>
+        <v>10227.0</v>
       </c>
       <c r="F42" t="n" s="317">
         <v>3.0</v>
@@ -7883,13 +7883,13 @@
         <v>21.0</v>
       </c>
       <c r="I42" t="n" s="320">
-        <v>0.621002856457428</v>
+        <v>0.6210028564575173</v>
       </c>
       <c r="J42" t="n" s="321">
-        <v>0.5351741633813683</v>
+        <v>0.5351741633813399</v>
       </c>
       <c r="K42" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="43">
@@ -7906,7 +7906,7 @@
         <v>2.0</v>
       </c>
       <c r="E43" t="n" s="316">
-        <v>42.0</v>
+        <v>10228.0</v>
       </c>
       <c r="F43" t="n" s="317">
         <v>3.0</v>
@@ -7918,13 +7918,13 @@
         <v>21.0</v>
       </c>
       <c r="I43" t="n" s="320">
-        <v>-0.4657305289780432</v>
+        <v>-0.46573052897791145</v>
       </c>
       <c r="J43" t="n" s="321">
-        <v>0.49552711785784664</v>
+        <v>0.4955271178578421</v>
       </c>
       <c r="K43" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="44">
@@ -7941,7 +7941,7 @@
         <v>6.0</v>
       </c>
       <c r="E44" t="n" s="316">
-        <v>43.0</v>
+        <v>10230.0</v>
       </c>
       <c r="F44" t="n" s="317">
         <v>3.0</v>
@@ -7953,13 +7953,13 @@
         <v>21.0</v>
       </c>
       <c r="I44" t="n" s="320">
-        <v>1.6669516748524151</v>
+        <v>1.6669516748523097</v>
       </c>
       <c r="J44" t="n" s="321">
-        <v>0.550970975460747</v>
+        <v>0.5509709754607007</v>
       </c>
       <c r="K44" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="45">
@@ -7976,7 +7976,7 @@
         <v>1.0</v>
       </c>
       <c r="E45" t="n" s="316">
-        <v>44.0</v>
+        <v>10231.0</v>
       </c>
       <c r="F45" t="n" s="317">
         <v>3.0</v>
@@ -7988,13 +7988,13 @@
         <v>21.0</v>
       </c>
       <c r="I45" t="n" s="320">
-        <v>-2.4937842656043774</v>
+        <v>-2.4937842656042566</v>
       </c>
       <c r="J45" t="n" s="321">
-        <v>1.3949286169562798</v>
+        <v>1.394928616956282</v>
       </c>
       <c r="K45" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="46">
@@ -8011,7 +8011,7 @@
         <v>2.0</v>
       </c>
       <c r="E46" t="n" s="316">
-        <v>45.0</v>
+        <v>10232.0</v>
       </c>
       <c r="F46" t="n" s="317">
         <v>3.0</v>
@@ -8023,13 +8023,13 @@
         <v>21.0</v>
       </c>
       <c r="I46" t="n" s="320">
-        <v>-0.6924518127932001</v>
+        <v>-0.6924518127930666</v>
       </c>
       <c r="J46" t="n" s="321">
-        <v>0.5335531734414554</v>
+        <v>0.5335531734414519</v>
       </c>
       <c r="K46" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="47">
@@ -8046,7 +8046,7 @@
         <v>2.0</v>
       </c>
       <c r="E47" t="n" s="316">
-        <v>46.0</v>
+        <v>10234.0</v>
       </c>
       <c r="F47" t="n" s="317">
         <v>3.0</v>
@@ -8058,13 +8058,13 @@
         <v>21.0</v>
       </c>
       <c r="I47" t="n" s="320">
-        <v>-0.26387077609489235</v>
+        <v>-0.2638707760947637</v>
       </c>
       <c r="J47" t="n" s="321">
-        <v>0.4774228849796572</v>
+        <v>0.4774228849796512</v>
       </c>
       <c r="K47" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="48">
@@ -8081,7 +8081,7 @@
         <v>4.0</v>
       </c>
       <c r="E48" t="n" s="316">
-        <v>47.0</v>
+        <v>10237.0</v>
       </c>
       <c r="F48" t="n" s="317">
         <v>3.0</v>
@@ -8093,13 +8093,13 @@
         <v>21.0</v>
       </c>
       <c r="I48" t="n" s="320">
-        <v>1.6669516748524151</v>
+        <v>1.6669516748523097</v>
       </c>
       <c r="J48" t="n" s="321">
-        <v>0.550970975460747</v>
+        <v>0.5509709754607007</v>
       </c>
       <c r="K48" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
     <row r="49">
@@ -8116,7 +8116,7 @@
         <v>5.0</v>
       </c>
       <c r="E49" t="n" s="316">
-        <v>48.0</v>
+        <v>10238.0</v>
       </c>
       <c r="F49" t="n" s="317">
         <v>3.0</v>
@@ -8128,13 +8128,13 @@
         <v>21.0</v>
       </c>
       <c r="I49" t="n" s="320">
-        <v>1.6669516748524151</v>
+        <v>1.6669516748523097</v>
       </c>
       <c r="J49" t="n" s="321">
-        <v>0.550970975460747</v>
+        <v>0.5509709754607007</v>
       </c>
       <c r="K49" t="n" s="322">
-        <v>0.7777624288006645</v>
+        <v>0.7777624288006588</v>
       </c>
     </row>
   </sheetData>
